--- a/Systems Theory.xlsx
+++ b/Systems Theory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5B7C01-6F82-4BAA-92DC-1366DC708873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EA16C3-4E54-4A60-B806-BC9B19F018EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51B98FFA-2475-4F9D-8687-8B4E83FE203A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Ethical Quandary</t>
   </si>
@@ -478,7 +478,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,9 +576,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" t="s">
         <v>8</v>
